--- a/formula-to-paste.xlsx
+++ b/formula-to-paste.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\major project\ws copy - Copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2722233-EB83-42EB-B823-77A4428DB691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8AA8FB-9E14-4859-9B9F-AE5A527962B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="5520" windowWidth="23010" windowHeight="13635" xr2:uid="{2AF4302A-FAA2-405E-9139-E294FCEAF995}"/>
+    <workbookView xWindow="345" yWindow="930" windowWidth="19800" windowHeight="13830" xr2:uid="{2AF4302A-FAA2-405E-9139-E294FCEAF995}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,70 +453,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805E5AA8-649D-41EA-99BB-797C3388E495}">
-  <dimension ref="O1:V2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="R1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="T1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="U1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="V1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="15:22" x14ac:dyDescent="0.25">
-      <c r="O2" t="e">
-        <f>VALUE(MID($H2,FIND(" ",$H2)+1,FIND(" ",$H2,FIND(" ",H2)+1)-FIND(" ",H2)-1))</f>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="e">
+        <f>VALUE(MID($H2,FIND(" ",$H2)+1,FIND(" ",$H2,FIND(" ",#REF!)+1)-FIND(" ",#REF!)-1))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="P2" t="e">
+      <c r="B2" t="e">
         <f>VALUE(MID($H2,FIND(" ",$H2),FIND("-",$H2)-FIND(" ",$H2)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="Q2" t="e">
+      <c r="C2" t="e">
         <f>VALUE(MID($H2,FIND("-",$H2)+1,FIND(" ",$H2,FIND(" ",$H2)+1)-FIND("-",$H2)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="R2" t="e">
+      <c r="D2" t="e">
         <f>VALUE(MID($H2,FIND(" ",$H2)+1,FIND("lu",$H2)-FIND(" ",$H2)-1))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="S2" t="e" cm="1">
-        <f t="array" ref="S2">_xlfn.IFS(FIND("Raised",$H2),0,FIND("Performance",$H2),0)</f>
+      <c r="E2" t="e" cm="1">
+        <f t="array" ref="E2">_xlfn.IFS(FIND("Raised",$H2),0,FIND("Performance",$H2),0)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T2" t="e">
+      <c r="F2" t="e">
         <f>VALUE(IF(FIND("Unpaid",$H2),"0"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U2" cm="1">
-        <f t="array" ref="U2">MIN(IF(ISNUMBER($O2:$T2), $O2:$T2))</f>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2">MIN(IF(ISNUMBER($O2:$T2), $O2:$T2))</f>
         <v>0</v>
       </c>
-      <c r="V2">
+      <c r="H2">
         <f>MAX(IFERROR($O2,0),IFERROR($P2,0),IFERROR($Q2,0),IFERROR($R2,0),IFERROR($S2,0),IFERROR($T2,0))</f>
         <v>0</v>
       </c>
